--- a/biology/Botanique/Mail_de_Bièvre/Mail_de_Bièvre.xlsx
+++ b/biology/Botanique/Mail_de_Bièvre/Mail_de_Bièvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mail_de_Bi%C3%A8vre</t>
+          <t>Mail_de_Bièvre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mail de Bièvre est un espace vert constituant l'un des quatre mails de Paris. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mail_de_Bi%C3%A8vre</t>
+          <t>Mail_de_Bièvre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il situé aux 105-109, du boulevard Auguste-Blanqui dans le 13e arrondissement.
 Le mail de Bièvre est accessible par la ligne 6 à la station Glacière.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mail_de_Bi%C3%A8vre</t>
+          <t>Mail_de_Bièvre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mail de Bièvre est créé en 1971.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mail_de_Bi%C3%A8vre</t>
+          <t>Mail_de_Bièvre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mail a une superficie de 4 230 m2. Il s'étend sur l'ancienne rive gauche de la Bièvre[1]. Entourée par de grands immeubles de logements HLM, la promenade est bordée de cerisiers à fleurs, et aboutit au Théâtre 13. Des jeux pour enfants l'agrémentent.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mail a une superficie de 4 230 m2. Il s'étend sur l'ancienne rive gauche de la Bièvre. Entourée par de grands immeubles de logements HLM, la promenade est bordée de cerisiers à fleurs, et aboutit au Théâtre 13. Des jeux pour enfants l'agrémentent.
 </t>
         </is>
       </c>
